--- a/MetroSystem/data/edges_HK.xlsx
+++ b/MetroSystem/data/edges_HK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\城大\课程\Year 3 Sem A\CS3343\CS3343_Group6\MetroSystem\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870B6B5A-8EAC-4A6E-B91A-DFC4F347C068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9012B4-3CDC-491F-BC05-414C33247EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13212" yWindow="1884" windowWidth="11052" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16320" yWindow="2424" windowWidth="11052" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>start_station</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>end_station</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,916 +450,1255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>5</v>
       </c>
       <c r="B18" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>6</v>
       </c>
       <c r="B19" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>33</v>
       </c>
       <c r="B33" s="3">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>20</v>
       </c>
       <c r="B35" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>21</v>
       </c>
       <c r="B36" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>22</v>
       </c>
       <c r="B37" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>34</v>
       </c>
       <c r="B38" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>35</v>
       </c>
       <c r="B39" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>36</v>
       </c>
       <c r="B40" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>37</v>
       </c>
       <c r="B41" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>38</v>
       </c>
       <c r="B42" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>39</v>
       </c>
       <c r="B43" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>40</v>
       </c>
       <c r="B44" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>41</v>
       </c>
       <c r="B45" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>42</v>
       </c>
       <c r="B46" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>43</v>
       </c>
       <c r="B47" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>44</v>
       </c>
       <c r="B48" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>11</v>
       </c>
       <c r="B49" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>12</v>
       </c>
       <c r="B50" s="4">
         <v>44</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>44</v>
       </c>
       <c r="B51" s="4">
         <v>45</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45</v>
       </c>
       <c r="B52" s="4">
         <v>46</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>46</v>
       </c>
       <c r="B53" s="4">
         <v>47</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>47</v>
       </c>
       <c r="B54" s="4">
         <v>48</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>46</v>
       </c>
       <c r="B55" s="4">
         <v>49</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>50</v>
       </c>
       <c r="B56" s="5">
         <v>51</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>51</v>
       </c>
       <c r="B57" s="5">
         <v>52</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>52</v>
       </c>
       <c r="B58" s="5">
         <v>53</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>53</v>
       </c>
       <c r="B59" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>27</v>
       </c>
       <c r="B60" s="5">
         <v>54</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>54</v>
       </c>
       <c r="B61" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>55</v>
       </c>
       <c r="B62" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>50</v>
       </c>
       <c r="B63" s="6">
         <v>51</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>51</v>
       </c>
       <c r="B64" s="6">
         <v>54</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>54</v>
       </c>
       <c r="B65" s="6">
         <v>57</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>57</v>
       </c>
       <c r="B66" s="6">
         <v>58</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>55</v>
       </c>
       <c r="B67" s="7">
         <v>59</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>6</v>
       </c>
       <c r="B68" s="8">
         <v>60</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>60</v>
       </c>
       <c r="B69" s="8">
         <v>61</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>61</v>
       </c>
       <c r="B70" s="8">
         <v>62</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>62</v>
       </c>
       <c r="B71" s="8">
         <v>63</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <v>64</v>
       </c>
       <c r="B72" s="9">
         <v>65</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>65</v>
       </c>
       <c r="B73" s="9">
         <v>66</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
         <v>66</v>
       </c>
       <c r="B74" s="9">
         <v>67</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
         <v>67</v>
       </c>
       <c r="B75" s="9">
         <v>68</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="9">
         <v>68</v>
       </c>
       <c r="B76" s="9">
         <v>69</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="9">
         <v>69</v>
       </c>
       <c r="B77" s="9">
         <v>70</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="9">
         <v>70</v>
       </c>
       <c r="B78" s="9">
         <v>26</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="9">
         <v>26</v>
       </c>
       <c r="B79" s="9">
         <v>53</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="9">
         <v>53</v>
       </c>
       <c r="B80" s="9">
         <v>71</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>71</v>
       </c>
       <c r="B81" s="9">
         <v>72</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>72</v>
       </c>
       <c r="B82" s="9">
         <v>73</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
         <v>73</v>
       </c>
       <c r="B83" s="9">
         <v>32</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
         <v>32</v>
       </c>
       <c r="B84" s="9">
         <v>74</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <v>74</v>
       </c>
       <c r="B85" s="9">
         <v>75</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="9">
         <v>75</v>
       </c>
       <c r="B86" s="9">
         <v>76</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="9">
         <v>76</v>
       </c>
       <c r="B87" s="9">
         <v>38</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="9">
         <v>38</v>
       </c>
       <c r="B88" s="9">
         <v>77</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="9">
         <v>77</v>
       </c>
       <c r="B89" s="9">
         <v>78</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
         <v>78</v>
       </c>
       <c r="B90" s="9">
         <v>79</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="9">
         <v>79</v>
       </c>
       <c r="B91" s="9">
         <v>80</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="9">
         <v>80</v>
       </c>
       <c r="B92" s="9">
         <v>81</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="9">
         <v>81</v>
       </c>
       <c r="B93" s="9">
         <v>82</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="9">
         <v>82</v>
       </c>
       <c r="B94" s="9">
         <v>83</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="9">
         <v>83</v>
       </c>
       <c r="B95" s="9">
         <v>84</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
         <v>84</v>
       </c>
       <c r="B96" s="9">
         <v>85</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="9">
         <v>85</v>
       </c>
       <c r="B97" s="9">
         <v>86</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="10">
         <v>73</v>
       </c>
       <c r="B98" s="10">
         <v>87</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="10">
         <v>87</v>
       </c>
       <c r="B99" s="10">
         <v>35</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="10">
         <v>35</v>
       </c>
       <c r="B100" s="10">
         <v>78</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="10">
         <v>78</v>
       </c>
       <c r="B101" s="10">
         <v>88</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="10">
         <v>88</v>
       </c>
       <c r="B102" s="10">
         <v>89</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="10">
         <v>89</v>
       </c>
       <c r="B103" s="10">
         <v>91</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="10">
         <v>91</v>
       </c>
       <c r="B104" s="10">
         <v>92</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="10">
         <v>92</v>
       </c>
       <c r="B105" s="10">
         <v>93</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="10">
         <v>93</v>
       </c>
       <c r="B106" s="10">
         <v>94</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="10">
         <v>94</v>
       </c>
       <c r="B107" s="10">
         <v>95</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="10">
         <v>95</v>
       </c>
       <c r="B108" s="10">
         <v>96</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="10">
         <v>95</v>
       </c>
       <c r="B109" s="10">
         <v>97</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="10">
         <v>88</v>
       </c>
       <c r="B110" s="10">
         <v>90</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="10">
         <v>90</v>
       </c>
       <c r="B111" s="10">
         <v>91</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
         <v>5</v>
       </c>
       <c r="B112" s="11">
         <v>50</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="12">
         <v>18</v>
       </c>
       <c r="B113" s="12">
         <v>72</v>
+      </c>
+      <c r="C113">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
